--- a/biology/Médecine/1183_en_santé_et_médecine/1183_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1183_en_santé_et_médecine/1183_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1183_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1183_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1183 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1183_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1183_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Création à Montpellier d'un hôpital dit « hôpital Robert », du nom de son fondateur Robert Pellier, établissement qui « connaîtra ensuite une grande extension sous le vocable de Saint-Éloi[1],[2] ».
-Au nom du sultan Saladin, son frère, le prince Al-Malik al-'Adil, fait aménager un hôpital ouvert dans le palais du Caire[3].
-Henri II, roi d'Angleterre et duc de Normandie, fonde à Rouen, paroisse de Quevilly, la léproserie Saint-Julien, destinée aux filles de la noblesse[4].
-Première mention, à Liège en Flandre, d'un hôpital dédié à sainte Agathe et situé hors les murs, porte Sainte-Marguerite, sur la route de Hesbaye[5].
-Fondation d'un hôpital à Montech, dans le comté de Toulouse[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Création à Montpellier d'un hôpital dit « hôpital Robert », du nom de son fondateur Robert Pellier, établissement qui « connaîtra ensuite une grande extension sous le vocable de Saint-Éloi, ».
+Au nom du sultan Saladin, son frère, le prince Al-Malik al-'Adil, fait aménager un hôpital ouvert dans le palais du Caire.
+Henri II, roi d'Angleterre et duc de Normandie, fonde à Rouen, paroisse de Quevilly, la léproserie Saint-Julien, destinée aux filles de la noblesse.
+Première mention, à Liège en Flandre, d'un hôpital dédié à sainte Agathe et situé hors les murs, porte Sainte-Marguerite, sur la route de Hesbaye.
+Fondation d'un hôpital à Montech, dans le comté de Toulouse.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1183_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1183_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« Injonction est faite au muhtasib d'Alep [en Syrie] d'interdire l'exercice de la médecine à tous les charlatans[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Injonction est faite au muhtasib d'Alep [en Syrie] d'interdire l'exercice de la médecine à tous les charlatans ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1183_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1183_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1181-1183 : fl. Gislebert, médecin à Foucarmont en Normandie, cité dans une charte de l'abbaye Saint-Michel du Tréport[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1181-1183 : fl. Gislebert, médecin à Foucarmont en Normandie, cité dans une charte de l'abbaye Saint-Michel du Tréport.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1183_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1183_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre de Celle (né à une date inconnue), abbé de Saint-Rémi de Reims, évêque de Chartres, « donné comme ayant certaines connaissances de médecine[9] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre de Celle (né à une date inconnue), abbé de Saint-Rémi de Reims, évêque de Chartres, « donné comme ayant certaines connaissances de médecine ».
 </t>
         </is>
       </c>
